--- a/python_Proyect/Resultados/Indices_Diversidad_Combinados.xlsx
+++ b/python_Proyect/Resultados/Indices_Diversidad_Combinados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.9887</v>
+        <v>0.0113</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.9886</v>
+        <v>0.0114</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.9735</v>
+        <v>0.0265</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.9711</v>
+        <v>0.0289</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.9896</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.0113</v>
+        <v>0.9887</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.0114</v>
+        <v>0.9886</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>0.0265</v>
+        <v>0.9735</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.0289</v>
+        <v>0.9711</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.0104</v>
+        <v>0.9896</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
